--- a/WHO-DATA-SETS/ExcelDataSets/20200125-sitrep-5-2019-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200125-sitrep-5-2019-ncov.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AD6C60-646C-4AF2-B356-0F4D05FC0FEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D3284A-1D6D-4823-9880-2485833447A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -383,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -416,12 +417,6 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -770,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -785,56 +780,60 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="150" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
+    <row r="1" spans="1:5" ht="33.6" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="33.6" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="24" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
+      <c r="A3" s="13"/>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8">
+        <v>3</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1">
-      <c r="A4" s="15"/>
+    <row r="4" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A4" s="13"/>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="24.6" customHeight="1">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:5" ht="24" customHeight="1">
+      <c r="A5" s="13"/>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8">
@@ -843,20 +842,20 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="24" customHeight="1">
-      <c r="A6" s="15"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1">
-      <c r="A7" s="15"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8">
@@ -865,93 +864,370 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1">
-      <c r="A8" s="15"/>
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
+    <row r="9" spans="1:5" ht="33.200000000000003" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="33.200000000000003" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
+    <row r="10" spans="1:5" ht="24" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1">
+    <row r="11" spans="1:5" ht="24.6" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="33" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10">
+        <v>1320</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="24.6" customHeight="1">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30">
+      <c r="A21" s="12"/>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30">
+      <c r="A24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="10">
+        <v>1320</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB34CBAF-30A3-4A03-8FF8-3AD8EC118EDB}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="13"/>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60">
+      <c r="A9" s="12"/>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45">
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="8">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="33" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="10">
+      <c r="D12" s="10">
         <v>1320</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="27" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:E14"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WHO-DATA-SETS/ExcelDataSets/20200125-sitrep-5-2019-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200125-sitrep-5-2019-ncov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D3284A-1D6D-4823-9880-2485833447A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B6E239-2FF8-4859-B657-A51B8F6EF58F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -284,7 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -295,15 +295,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -312,8 +303,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -343,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -380,11 +371,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -417,6 +432,33 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -765,13 +807,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B27" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
@@ -780,21 +822,21 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.6" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -803,271 +845,138 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="8">
+      <c r="D3" s="13">
         <v>3</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="24.6" customHeight="1">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="8">
+      <c r="D4" s="13">
         <v>2</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="8">
+      <c r="D5" s="13">
         <v>2</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="8">
+      <c r="D6" s="13">
         <v>3</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="8">
+      <c r="D7" s="13">
         <v>3</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="8">
+      <c r="D8" s="13">
         <v>4</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="33.200000000000003" customHeight="1">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:9" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="8">
+      <c r="D9" s="13">
         <v>1</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="8">
+      <c r="D10" s="13">
         <v>2</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="24.6" customHeight="1">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="8">
+      <c r="D11" s="13">
         <v>3</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="33" customHeight="1">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="10">
+      <c r="D12" s="13">
         <v>1320</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30">
-      <c r="A21" s="12"/>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30">
-      <c r="A24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="10">
-        <v>1320</v>
-      </c>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A20:A21"/>
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1081,7 +990,7 @@
       <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
@@ -1089,20 +998,20 @@
     <col min="4" max="4" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1115,8 +1024,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="22"/>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1125,8 +1034,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1135,8 +1044,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1145,8 +1054,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1155,8 +1064,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1165,8 +1074,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1177,8 +1086,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1187,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1199,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1211,7 +1120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
